--- a/restaurant_menu_project/menu_data.xlsx
+++ b/restaurant_menu_project/menu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erykc\Desktop\VSCode\men-generator-test1\restaurant_menu_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19DF5C0-506C-4CF4-96D1-4C0E04EEE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E70F7B-6371-49FF-8803-41B77EC1AF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{872E950D-B831-4227-A237-4944618F0AE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7ACDF87-70FD-44B8-9CC9-97F4EC010F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Przystawki</t>
+  </si>
+  <si>
+    <t>Tatar wołowy</t>
+  </si>
+  <si>
+    <t>Z żółtkiem, drobno krojoną cebulką, piklami, grzybkami marynowanymi, przyprawione solą i pieprzem</t>
+  </si>
+  <si>
+    <t>Placuszki z cukinii</t>
+  </si>
+  <si>
+    <t>Tarte placki z cukinii podane z wędzonym łososiem i tzatzikami</t>
+  </si>
+  <si>
+    <t>Flammkuchen</t>
+  </si>
+  <si>
+    <t>Świeże ciasto chlebowe z ziołami; do wyboru z cebulą i boczkiem lub warzywami</t>
+  </si>
+  <si>
+    <t>Zupy</t>
+  </si>
+  <si>
+    <t>Rosół</t>
+  </si>
+  <si>
+    <t>Drobiowo-wołowy z makaronem</t>
+  </si>
+  <si>
+    <t>Krem pomidorowy</t>
+  </si>
+  <si>
+    <t>Z pieczonych pomidorów, z dodatkiem grzanek</t>
+  </si>
+  <si>
+    <t>Szwajcarska zupa serowa</t>
+  </si>
+  <si>
+    <t>Zupa-krem na bazie serów twardych i pleśniowych</t>
+  </si>
+  <si>
+    <t>Autorski żurek</t>
+  </si>
+  <si>
+    <t>Z białą kiełbasą, jajkiem i podgrzybkami, na zakwasie</t>
+  </si>
+  <si>
+    <t>Dania główne</t>
+  </si>
+  <si>
+    <t>Grillowany filet z indyka</t>
+  </si>
+  <si>
+    <t>Z frytkami stekowymi, dipem czosnkowym i zestawem surówek</t>
+  </si>
+  <si>
+    <t>Panierowany filet z kurczaka</t>
+  </si>
+  <si>
+    <t>Z purée i zestawem surówek</t>
+  </si>
+  <si>
+    <t>Kotlet szwajcarski</t>
+  </si>
+  <si>
+    <t>Z placuszkami rosti i świeżym miksem sałat</t>
+  </si>
+  <si>
+    <t>Polędwiczki wieprzowe</t>
+  </si>
+  <si>
+    <t>Z autorskim sosem kurkowym, smażonymi kopytkami i buraczkami</t>
+  </si>
+  <si>
+    <t>Schabowy z kością</t>
+  </si>
+  <si>
+    <t>Marynowany w mleku, panierowany, z purée ziemniaczanym i mizerią</t>
+  </si>
+  <si>
+    <t>Rolada śląska</t>
+  </si>
+  <si>
+    <t>Z tradycyjnymi kluskami śląskimi, sosem pieczeniowym i modrą kapustą z boczkiem</t>
+  </si>
+  <si>
+    <t>Poliki wołowe w sosie własnym</t>
+  </si>
+  <si>
+    <t>Z chrzanowym purée i młodą marchewką balsamiczną</t>
+  </si>
+  <si>
+    <t>Udko z kaczki</t>
+  </si>
+  <si>
+    <t>W sosie własnym, z kluskami na parze i czerwoną kapustą z jabłkiem</t>
+  </si>
+  <si>
+    <t>Żeberka wieprzowe</t>
+  </si>
+  <si>
+    <t>Glazurowane, z kolbą kukurydzy, frytkami stekowymi i sosem miodowo-musztardowym</t>
+  </si>
+  <si>
+    <t>Stek z polędwicy</t>
+  </si>
+  <si>
+    <t>Z frytkami belgijskimi, miksem sałat i masłem ziołowo-czosnkowym</t>
+  </si>
+  <si>
+    <t>Łosoś sous-vide</t>
+  </si>
+  <si>
+    <t>Z frytkami z batatów, szparagami i chrustem z pora</t>
+  </si>
+  <si>
+    <t>Stek z halibuta</t>
+  </si>
+  <si>
+    <t>Z sosem szpinakowo-śmietanowym, zasmażaną kapustą z pieczarkami i purée szczypiorkowym</t>
+  </si>
+  <si>
+    <t>Placek ziemniaczany</t>
+  </si>
+  <si>
+    <t>Z gulaszem wieprzowym, śmietaną i tartym serem</t>
+  </si>
+  <si>
+    <t>Pappardelle z kurczakiem</t>
+  </si>
+  <si>
+    <t>Z kawałkami kurczaka i autorskim pesto</t>
+  </si>
+  <si>
+    <t>Tagliatelle z krewetkami</t>
+  </si>
+  <si>
+    <t>Makaron barwiony sepią, podany z rukolą</t>
+  </si>
+  <si>
+    <t>Risotto z borowikami</t>
+  </si>
+  <si>
+    <t>Na bazie białego wina</t>
+  </si>
+  <si>
+    <t>Sałatki</t>
+  </si>
+  <si>
+    <t>Z grillowanym kurczakiem</t>
+  </si>
+  <si>
+    <t>Baza: świeże sałaty, pomidory, ogórki, papryka, sos vinaigrette</t>
+  </si>
+  <si>
+    <t>Z grillowanymi warzywami</t>
+  </si>
+  <si>
+    <t>Z serem halloumi i orzechami</t>
+  </si>
+  <si>
+    <t>Z wędzonym tofu</t>
+  </si>
+  <si>
+    <t>Dla dzieci</t>
+  </si>
+  <si>
+    <t>Rosół z makaronem</t>
+  </si>
+  <si>
+    <t>Pomidorowa z makaronem</t>
+  </si>
+  <si>
+    <t>Chrupiący kurczak</t>
+  </si>
+  <si>
+    <t>Nuggetsy z połowy piersi kurczaka, frytki i marchewka</t>
+  </si>
+  <si>
+    <t>Naleśniki z twarogiem</t>
+  </si>
+  <si>
+    <t>Dwa naleśniki z białym serem, cukrem pudrem i musem malinowym</t>
+  </si>
+  <si>
+    <t>Kraina lodu</t>
+  </si>
+  <si>
+    <t>Lody waniliowo-czekoladowe z bitą śmietaną i posypką</t>
+  </si>
+  <si>
+    <t>Desery</t>
+  </si>
+  <si>
+    <t>Szarlotka na ciepło</t>
+  </si>
+  <si>
+    <t>Lody z gorącymi malinami</t>
+  </si>
+  <si>
+    <t>Z bitą śmietaną i polewą czekoladową</t>
+  </si>
+  <si>
+    <t>Ciasto marchewkowe</t>
+  </si>
+  <si>
+    <t>Z mascarpone i galaretką marchewkową, podane z sorbetem morelowym</t>
+  </si>
+  <si>
+    <t>Sernik karmelowy</t>
+  </si>
+  <si>
+    <t>Ze słonym karmelem i spodem z ciastek korzennych</t>
+  </si>
+  <si>
+    <t>Brownie</t>
+  </si>
+  <si>
+    <t>Ciasto czekoladowe z cynamonem i wiśniami</t>
+  </si>
+  <si>
+    <t>Beza z owocami</t>
+  </si>
+  <si>
+    <t>Z bitą śmietaną i musem mango</t>
+  </si>
+  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Soup</t>
-  </si>
-  <si>
-    <t>Żurek</t>
-  </si>
-  <si>
-    <t>Traditional sour rye soup with sausage</t>
-  </si>
-  <si>
-    <t>Main Dish</t>
-  </si>
-  <si>
-    <t>Pierogi ruskie</t>
-  </si>
-  <si>
-    <t>Dumplings filled with potato and cheese</t>
-  </si>
-  <si>
-    <t>Dessert</t>
-  </si>
-  <si>
-    <t>Sernik</t>
-  </si>
-  <si>
-    <t>Polish baked cheesecake with vanilla notes</t>
   </si>
 </sst>
 </file>
@@ -458,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4456B-D682-4004-B5E1-0B898E075694}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AA3566-C3BB-45F9-BC23-1F459B025FA7}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,43 +673,419 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/restaurant_menu_project/menu_data.xlsx
+++ b/restaurant_menu_project/menu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erykc\Desktop\VSCode\men-generator-test1\restaurant_menu_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E70F7B-6371-49FF-8803-41B77EC1AF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E175AD7D-169D-4978-81ED-54D7C5FE4456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7ACDF87-70FD-44B8-9CC9-97F4EC010F4C}"/>
+    <workbookView xWindow="28680" yWindow="-1710" windowWidth="29040" windowHeight="15720" xr2:uid="{E7ACDF87-70FD-44B8-9CC9-97F4EC010F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +295,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,13 +325,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +673,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -690,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -701,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -712,18 +722,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -734,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -745,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -756,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
